--- a/module_openpyxl/works/_sample.xlsx
+++ b/module_openpyxl/works/_sample.xlsx
@@ -363,7 +363,7 @@
         </is>
       </c>
       <c r="F1" s="1" t="n">
-        <v>43783.64119820125</v>
+        <v>43786.64222038262</v>
       </c>
     </row>
     <row r="2">
